--- a/Results/lenet_mnist_10clients_0.1_niid2_phase3/lenet_mnist_10clients_0.1_niid2_phase3.xlsx
+++ b/Results/lenet_mnist_10clients_0.1_niid2_phase3/lenet_mnist_10clients_0.1_niid2_phase3.xlsx
@@ -416,34 +416,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.9999999403953552</v>
+        <v>0.9991452097892761</v>
       </c>
       <c r="C2">
-        <v>-0.01753661967813969</v>
+        <v>0.1430338472127914</v>
       </c>
       <c r="D2">
-        <v>0.1599907577037811</v>
+        <v>0.1129700616002083</v>
       </c>
       <c r="E2">
-        <v>0.2277349531650543</v>
+        <v>0.07411432266235352</v>
       </c>
       <c r="F2">
-        <v>0.1186207085847855</v>
+        <v>0.3330666422843933</v>
       </c>
       <c r="G2">
-        <v>0.06948163360357285</v>
+        <v>0.1182633638381958</v>
       </c>
       <c r="H2">
-        <v>0.2222273051738739</v>
+        <v>0.1370221972465515</v>
       </c>
       <c r="I2">
-        <v>0.1745547950267792</v>
+        <v>0.05858461558818817</v>
       </c>
       <c r="J2">
-        <v>0.2010345906019211</v>
+        <v>0.07407677173614502</v>
       </c>
       <c r="K2">
-        <v>0.1723770499229431</v>
+        <v>0.07664929330348969</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -451,34 +451,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.9997361898422241</v>
+        <v>0.8419144749641418</v>
       </c>
       <c r="C3">
-        <v>0.43147873878479</v>
+        <v>0.181389331817627</v>
       </c>
       <c r="D3">
-        <v>0.5422426462173462</v>
+        <v>0.1430712789297104</v>
       </c>
       <c r="E3">
-        <v>0.5188732147216797</v>
+        <v>0.09731531143188477</v>
       </c>
       <c r="F3">
-        <v>0.3899150192737579</v>
+        <v>0.3873530924320221</v>
       </c>
       <c r="G3">
-        <v>0.546046257019043</v>
+        <v>0.193472146987915</v>
       </c>
       <c r="H3">
-        <v>0.5514125227928162</v>
+        <v>0.1903690099716187</v>
       </c>
       <c r="I3">
-        <v>0.5754782557487488</v>
+        <v>0.1231686249375343</v>
       </c>
       <c r="J3">
-        <v>0.4084248840808868</v>
+        <v>0.1021569520235062</v>
       </c>
       <c r="K3">
-        <v>0.5794654488563538</v>
+        <v>0.08475363254547119</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -486,34 +486,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.999891459941864</v>
+        <v>0.8995354771614075</v>
       </c>
       <c r="C4">
-        <v>0.5312219262123108</v>
+        <v>0.1335157454013824</v>
       </c>
       <c r="D4">
-        <v>0.5801125764846802</v>
+        <v>0.1284172236919403</v>
       </c>
       <c r="E4">
-        <v>0.5661572217941284</v>
+        <v>-0.007593263871967793</v>
       </c>
       <c r="F4">
-        <v>0.5330581068992615</v>
+        <v>0.3825095891952515</v>
       </c>
       <c r="G4">
-        <v>0.5793727040290833</v>
+        <v>0.1504358649253845</v>
       </c>
       <c r="H4">
-        <v>0.580589771270752</v>
+        <v>0.126821756362915</v>
       </c>
       <c r="I4">
-        <v>0.5889382362365723</v>
+        <v>0.07927840948104858</v>
       </c>
       <c r="J4">
-        <v>0.5238309502601624</v>
+        <v>-0.00854152999818325</v>
       </c>
       <c r="K4">
-        <v>0.5895200967788696</v>
+        <v>0.001116545405238867</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -521,34 +521,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.9998876452445984</v>
+        <v>0.913134753704071</v>
       </c>
       <c r="C5">
-        <v>0.5805654525756836</v>
+        <v>0.120390996336937</v>
       </c>
       <c r="D5">
-        <v>0.5782204866409302</v>
+        <v>0.06555307656526566</v>
       </c>
       <c r="E5">
-        <v>0.57366943359375</v>
+        <v>-0.02022845298051834</v>
       </c>
       <c r="F5">
-        <v>0.5442106127738953</v>
+        <v>0.3297795057296753</v>
       </c>
       <c r="G5">
-        <v>0.5817621946334839</v>
+        <v>0.1489598304033279</v>
       </c>
       <c r="H5">
-        <v>0.5836572051048279</v>
+        <v>0.1687866002321243</v>
       </c>
       <c r="I5">
-        <v>0.5894015431404114</v>
+        <v>0.04280069097876549</v>
       </c>
       <c r="J5">
-        <v>0.5462393760681152</v>
+        <v>0.00457511143758893</v>
       </c>
       <c r="K5">
-        <v>0.590299665927887</v>
+        <v>-0.003563819685950875</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -556,34 +556,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.9999362230300903</v>
+        <v>0.8964793682098389</v>
       </c>
       <c r="C6">
-        <v>0.5889554023742676</v>
+        <v>0.08856886625289917</v>
       </c>
       <c r="D6">
-        <v>0.5761979222297668</v>
+        <v>0.01560960058122873</v>
       </c>
       <c r="E6">
-        <v>0.5681048631668091</v>
+        <v>-0.08547504246234894</v>
       </c>
       <c r="F6">
-        <v>0.5132068395614624</v>
+        <v>0.2865765392780304</v>
       </c>
       <c r="G6">
-        <v>0.5761746168136597</v>
+        <v>0.08626220375299454</v>
       </c>
       <c r="H6">
-        <v>0.5768159627914429</v>
+        <v>0.09404757618904114</v>
       </c>
       <c r="I6">
-        <v>0.5874656438827515</v>
+        <v>0.06193898618221283</v>
       </c>
       <c r="J6">
-        <v>0.5343538522720337</v>
+        <v>-0.06840409338474274</v>
       </c>
       <c r="K6">
-        <v>0.5881825089454651</v>
+        <v>-0.07772132754325867</v>
       </c>
     </row>
   </sheetData>
@@ -636,34 +636,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1477816551923752</v>
+        <v>0.350502073764801</v>
       </c>
       <c r="C2">
-        <v>-0.07769319415092468</v>
+        <v>0.2452934682369232</v>
       </c>
       <c r="D2">
-        <v>0.1805738806724548</v>
+        <v>0.182460755109787</v>
       </c>
       <c r="E2">
-        <v>0.1869871616363525</v>
+        <v>0.2243736386299133</v>
       </c>
       <c r="F2">
-        <v>0.7714998722076416</v>
+        <v>0.8505153656005859</v>
       </c>
       <c r="G2">
-        <v>0.5800414085388184</v>
+        <v>0.1597947329282761</v>
       </c>
       <c r="H2">
-        <v>0.167686253786087</v>
+        <v>0.2617316842079163</v>
       </c>
       <c r="I2">
-        <v>0.1533302962779999</v>
+        <v>0.1087449342012405</v>
       </c>
       <c r="J2">
-        <v>0.1887434273958206</v>
+        <v>0.2167065441608429</v>
       </c>
       <c r="K2">
-        <v>0.2142120450735092</v>
+        <v>0.1935644745826721</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -671,34 +671,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.3939656019210815</v>
+        <v>0.3871906995773315</v>
       </c>
       <c r="C3">
-        <v>0.5105628967285156</v>
+        <v>0.189569279551506</v>
       </c>
       <c r="D3">
-        <v>0.4156661927700043</v>
+        <v>0.1368758976459503</v>
       </c>
       <c r="E3">
-        <v>0.4191592335700989</v>
+        <v>0.244110107421875</v>
       </c>
       <c r="F3">
-        <v>0.9999549984931946</v>
+        <v>0.9107834100723267</v>
       </c>
       <c r="G3">
-        <v>0.9310939908027649</v>
+        <v>0.171284019947052</v>
       </c>
       <c r="H3">
-        <v>0.4100899696350098</v>
+        <v>0.2163459211587906</v>
       </c>
       <c r="I3">
-        <v>0.3959451913833618</v>
+        <v>0.1827108561992645</v>
       </c>
       <c r="J3">
-        <v>0.4382002353668213</v>
+        <v>0.2393665611743927</v>
       </c>
       <c r="K3">
-        <v>0.3921933174133301</v>
+        <v>0.2090193033218384</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -706,34 +706,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.5186381340026855</v>
+        <v>0.3778550028800964</v>
       </c>
       <c r="C4">
-        <v>0.4833753705024719</v>
+        <v>0.1223528683185577</v>
       </c>
       <c r="D4">
-        <v>0.5160571336746216</v>
+        <v>0.08537266403436661</v>
       </c>
       <c r="E4">
-        <v>0.5110463500022888</v>
+        <v>0.06688345968723297</v>
       </c>
       <c r="F4">
-        <v>0.9988453984260559</v>
+        <v>0.9133873581886292</v>
       </c>
       <c r="G4">
-        <v>0.9826087951660156</v>
+        <v>0.06541002541780472</v>
       </c>
       <c r="H4">
-        <v>0.5144516229629517</v>
+        <v>0.1426856368780136</v>
       </c>
       <c r="I4">
-        <v>0.519183337688446</v>
+        <v>0.06092706322669983</v>
       </c>
       <c r="J4">
-        <v>0.4938957393169403</v>
+        <v>0.03038531728088856</v>
       </c>
       <c r="K4">
-        <v>0.5177171230316162</v>
+        <v>0.03705256432294846</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -741,34 +741,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.5271368026733398</v>
+        <v>0.3556812703609467</v>
       </c>
       <c r="C5">
-        <v>0.5404701828956604</v>
+        <v>0.0834089070558548</v>
       </c>
       <c r="D5">
-        <v>0.5249251127243042</v>
+        <v>0.06054500490427017</v>
       </c>
       <c r="E5">
-        <v>0.5202754735946655</v>
+        <v>0.09228980541229248</v>
       </c>
       <c r="F5">
-        <v>0.9986051321029663</v>
+        <v>0.8730734586715698</v>
       </c>
       <c r="G5">
-        <v>0.9872550964355469</v>
+        <v>0.01889570616185665</v>
       </c>
       <c r="H5">
-        <v>0.5243127346038818</v>
+        <v>0.1103140786290169</v>
       </c>
       <c r="I5">
-        <v>0.5299395322799683</v>
+        <v>0.05081800371408463</v>
       </c>
       <c r="J5">
-        <v>0.5125906467437744</v>
+        <v>0.09400218725204468</v>
       </c>
       <c r="K5">
-        <v>0.5265204906463623</v>
+        <v>0.1177549064159393</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -776,34 +776,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.5144999027252197</v>
+        <v>0.3034168779850006</v>
       </c>
       <c r="C6">
-        <v>0.5414521098136902</v>
+        <v>0.06663787364959717</v>
       </c>
       <c r="D6">
-        <v>0.5185204744338989</v>
+        <v>0.05173321813344955</v>
       </c>
       <c r="E6">
-        <v>0.5079635381698608</v>
+        <v>0.002351698465645313</v>
       </c>
       <c r="F6">
-        <v>0.9989927411079407</v>
+        <v>0.8529447317123413</v>
       </c>
       <c r="G6">
-        <v>0.9859883785247803</v>
+        <v>-0.0005376278422772884</v>
       </c>
       <c r="H6">
-        <v>0.5074822902679443</v>
+        <v>0.1356476545333862</v>
       </c>
       <c r="I6">
-        <v>0.5246108770370483</v>
+        <v>-0.001974189653992653</v>
       </c>
       <c r="J6">
-        <v>0.5067670941352844</v>
+        <v>-0.01525519043207169</v>
       </c>
       <c r="K6">
-        <v>0.5154245495796204</v>
+        <v>-0.005265089683234692</v>
       </c>
     </row>
   </sheetData>
@@ -856,34 +856,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2387755811214447</v>
+        <v>0.1414919048547745</v>
       </c>
       <c r="C2">
-        <v>-0.05259772762656212</v>
+        <v>0.8990633487701416</v>
       </c>
       <c r="D2">
-        <v>0.1969722211360931</v>
+        <v>0.2782445549964905</v>
       </c>
       <c r="E2">
-        <v>0.8788757920265198</v>
+        <v>0.3091765344142914</v>
       </c>
       <c r="F2">
-        <v>0.1469630897045135</v>
+        <v>0.2737420797348022</v>
       </c>
       <c r="G2">
-        <v>0.08194508403539658</v>
+        <v>0.3821729421615601</v>
       </c>
       <c r="H2">
-        <v>0.8180041313171387</v>
+        <v>0.9175184369087219</v>
       </c>
       <c r="I2">
-        <v>0.1086783558130264</v>
+        <v>0.1603566706180573</v>
       </c>
       <c r="J2">
-        <v>0.2497982233762741</v>
+        <v>0.2785451412200928</v>
       </c>
       <c r="K2">
-        <v>0.1559877395629883</v>
+        <v>0.2888079285621643</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -891,34 +891,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.5422009825706482</v>
+        <v>0.1939617395401001</v>
       </c>
       <c r="C3">
-        <v>0.4441752731800079</v>
+        <v>0.8696486353874207</v>
       </c>
       <c r="D3">
-        <v>0.5244136452674866</v>
+        <v>0.1590847671031952</v>
       </c>
       <c r="E3">
-        <v>0.9971088171005249</v>
+        <v>0.1437400579452515</v>
       </c>
       <c r="F3">
-        <v>0.4174788296222687</v>
+        <v>0.249093160033226</v>
       </c>
       <c r="G3">
-        <v>0.5245113968849182</v>
+        <v>0.3911994099617004</v>
       </c>
       <c r="H3">
-        <v>0.9991477131843567</v>
+        <v>0.8995330333709717</v>
       </c>
       <c r="I3">
-        <v>0.5411037802696228</v>
+        <v>0.1953214406967163</v>
       </c>
       <c r="J3">
-        <v>0.4364195466041565</v>
+        <v>0.1058831959962845</v>
       </c>
       <c r="K3">
-        <v>0.5431539416313171</v>
+        <v>0.1127302944660187</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -926,34 +926,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.5773717164993286</v>
+        <v>0.154995858669281</v>
       </c>
       <c r="C4">
-        <v>0.4458673894405365</v>
+        <v>0.8059124350547791</v>
       </c>
       <c r="D4">
-        <v>0.5709015130996704</v>
+        <v>0.1323618590831757</v>
       </c>
       <c r="E4">
-        <v>0.9983575344085693</v>
+        <v>0.1207740902900696</v>
       </c>
       <c r="F4">
-        <v>0.5297965407371521</v>
+        <v>0.1570538282394409</v>
       </c>
       <c r="G4">
-        <v>0.5691031217575073</v>
+        <v>0.3039008378982544</v>
       </c>
       <c r="H4">
-        <v>0.999674379825592</v>
+        <v>0.8017264604568481</v>
       </c>
       <c r="I4">
-        <v>0.5772241353988647</v>
+        <v>0.06702704727649689</v>
       </c>
       <c r="J4">
-        <v>0.5232510566711426</v>
+        <v>0.09318554401397705</v>
       </c>
       <c r="K4">
-        <v>0.5776412487030029</v>
+        <v>0.1034483462572098</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -961,34 +961,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.5788297653198242</v>
+        <v>0.1615512371063232</v>
       </c>
       <c r="C5">
-        <v>0.5159070491790771</v>
+        <v>0.8003090620040894</v>
       </c>
       <c r="D5">
-        <v>0.5711520910263062</v>
+        <v>0.04233547300100327</v>
       </c>
       <c r="E5">
-        <v>0.9991957545280457</v>
+        <v>0.07620251178741455</v>
       </c>
       <c r="F5">
-        <v>0.5397492051124573</v>
+        <v>0.1230612993240356</v>
       </c>
       <c r="G5">
-        <v>0.5719122886657715</v>
+        <v>0.3290358781814575</v>
       </c>
       <c r="H5">
-        <v>0.9997305870056152</v>
+        <v>0.7997640371322632</v>
       </c>
       <c r="I5">
-        <v>0.5779509544372559</v>
+        <v>0.0544796921312809</v>
       </c>
       <c r="J5">
-        <v>0.5452593564987183</v>
+        <v>0.06331096589565277</v>
       </c>
       <c r="K5">
-        <v>0.5785608291625977</v>
+        <v>0.06093533337116241</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -996,34 +996,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.5795081257820129</v>
+        <v>0.1257442831993103</v>
       </c>
       <c r="C6">
-        <v>0.5171853303909302</v>
+        <v>0.7224055528640747</v>
       </c>
       <c r="D6">
-        <v>0.5711489915847778</v>
+        <v>0.0393880307674408</v>
       </c>
       <c r="E6">
-        <v>0.9990019798278809</v>
+        <v>0.01604572683572769</v>
       </c>
       <c r="F6">
-        <v>0.5105032324790955</v>
+        <v>0.1403841078281403</v>
       </c>
       <c r="G6">
-        <v>0.5654482841491699</v>
+        <v>0.230410635471344</v>
       </c>
       <c r="H6">
-        <v>0.9998176693916321</v>
+        <v>0.7006366848945618</v>
       </c>
       <c r="I6">
-        <v>0.5746026039123535</v>
+        <v>0.002823930233716965</v>
       </c>
       <c r="J6">
-        <v>0.5381465554237366</v>
+        <v>-0.003441604087129235</v>
       </c>
       <c r="K6">
-        <v>0.5752145648002625</v>
+        <v>0.03482107073068619</v>
       </c>
     </row>
   </sheetData>
@@ -1076,34 +1076,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2164691984653473</v>
+        <v>0.0634601041674614</v>
       </c>
       <c r="C2">
-        <v>-0.07186763733625412</v>
+        <v>0.3080958127975464</v>
       </c>
       <c r="D2">
-        <v>0.2244610488414764</v>
+        <v>0.2454153895378113</v>
       </c>
       <c r="E2">
-        <v>0.8164678812026978</v>
+        <v>0.8791877031326294</v>
       </c>
       <c r="F2">
-        <v>0.1636157333850861</v>
+        <v>0.2427192032337189</v>
       </c>
       <c r="G2">
-        <v>0.09799343347549438</v>
+        <v>0.2048051953315735</v>
       </c>
       <c r="H2">
-        <v>0.7613732218742371</v>
+        <v>0.318540096282959</v>
       </c>
       <c r="I2">
-        <v>0.1350920349359512</v>
+        <v>0.106253370642662</v>
       </c>
       <c r="J2">
-        <v>0.2765666842460632</v>
+        <v>0.8389040231704712</v>
       </c>
       <c r="K2">
-        <v>0.1352370083332062</v>
+        <v>0.7740780115127563</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -1111,34 +1111,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.5183559656143188</v>
+        <v>0.09488968551158905</v>
       </c>
       <c r="C3">
-        <v>0.4538323879241943</v>
+        <v>0.05356951057910919</v>
       </c>
       <c r="D3">
-        <v>0.5055583715438843</v>
+        <v>0.1037367656826973</v>
       </c>
       <c r="E3">
-        <v>0.998834490776062</v>
+        <v>0.8824202418327332</v>
       </c>
       <c r="F3">
-        <v>0.4180788993835449</v>
+        <v>0.2022385746240616</v>
       </c>
       <c r="G3">
-        <v>0.5055977702140808</v>
+        <v>0.1839115619659424</v>
       </c>
       <c r="H3">
-        <v>0.9960094690322876</v>
+        <v>0.1182216927409172</v>
       </c>
       <c r="I3">
-        <v>0.5175349712371826</v>
+        <v>0.06563277542591095</v>
       </c>
       <c r="J3">
-        <v>0.4346100687980652</v>
+        <v>0.8938502073287964</v>
       </c>
       <c r="K3">
-        <v>0.5189802646636963</v>
+        <v>0.858808159828186</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -1146,34 +1146,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.5719892978668213</v>
+        <v>0.005149200093001127</v>
       </c>
       <c r="C4">
-        <v>0.4429869949817657</v>
+        <v>0.1313395649194717</v>
       </c>
       <c r="D4">
-        <v>0.5646516084671021</v>
+        <v>0.132334440946579</v>
       </c>
       <c r="E4">
-        <v>0.9988787174224854</v>
+        <v>0.9128333330154419</v>
       </c>
       <c r="F4">
-        <v>0.5254008769989014</v>
+        <v>0.0363755077123642</v>
       </c>
       <c r="G4">
-        <v>0.5639435052871704</v>
+        <v>0.1465888321399689</v>
       </c>
       <c r="H4">
-        <v>0.9997701644897461</v>
+        <v>0.1290293484926224</v>
       </c>
       <c r="I4">
-        <v>0.5720171928405762</v>
+        <v>0.03064368665218353</v>
       </c>
       <c r="J4">
-        <v>0.517414927482605</v>
+        <v>0.8671112060546875</v>
       </c>
       <c r="K4">
-        <v>0.5724388957023621</v>
+        <v>0.8666530847549438</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -1181,34 +1181,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.5743831396102905</v>
+        <v>-0.02230313047766685</v>
       </c>
       <c r="C5">
-        <v>0.5124320983886719</v>
+        <v>0.0690358579158783</v>
       </c>
       <c r="D5">
-        <v>0.5643413066864014</v>
+        <v>0.05015774816274643</v>
       </c>
       <c r="E5">
-        <v>0.9993887543678284</v>
+        <v>0.8622767925262451</v>
       </c>
       <c r="F5">
-        <v>0.5355572700500488</v>
+        <v>0.0678262859582901</v>
       </c>
       <c r="G5">
-        <v>0.5674697756767273</v>
+        <v>0.0985918790102005</v>
       </c>
       <c r="H5">
-        <v>0.9996001720428467</v>
+        <v>0.07840251922607422</v>
       </c>
       <c r="I5">
-        <v>0.5734843015670776</v>
+        <v>-0.02583351545035839</v>
       </c>
       <c r="J5">
-        <v>0.5383106470108032</v>
+        <v>0.8083022832870483</v>
       </c>
       <c r="K5">
-        <v>0.5741187930107117</v>
+        <v>0.7824476957321167</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -1216,34 +1216,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.5749688744544983</v>
+        <v>-0.07409848272800446</v>
       </c>
       <c r="C6">
-        <v>0.5160737633705139</v>
+        <v>0.0663532167673111</v>
       </c>
       <c r="D6">
-        <v>0.5604896545410156</v>
+        <v>0.03122150711715221</v>
       </c>
       <c r="E6">
-        <v>0.9993623495101929</v>
+        <v>0.8538094758987427</v>
       </c>
       <c r="F6">
-        <v>0.5066147446632385</v>
+        <v>-0.002507996745407581</v>
       </c>
       <c r="G6">
-        <v>0.5611472129821777</v>
+        <v>0.1330919712781906</v>
       </c>
       <c r="H6">
-        <v>0.9995278120040894</v>
+        <v>0.03923232853412628</v>
       </c>
       <c r="I6">
-        <v>0.5700360536575317</v>
+        <v>-0.02549296617507935</v>
       </c>
       <c r="J6">
-        <v>0.5277454257011414</v>
+        <v>0.7714097499847412</v>
       </c>
       <c r="K6">
-        <v>0.5706218481063843</v>
+        <v>0.7512955069541931</v>
       </c>
     </row>
   </sheetData>
@@ -1296,34 +1296,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1782247722148895</v>
+        <v>0.09490688890218735</v>
       </c>
       <c r="C2">
-        <v>-0.0609891414642334</v>
+        <v>0.2774272561073303</v>
       </c>
       <c r="D2">
-        <v>0.7793880701065063</v>
+        <v>0.8550652265548706</v>
       </c>
       <c r="E2">
-        <v>0.2603022456169128</v>
+        <v>0.2526507079601288</v>
       </c>
       <c r="F2">
-        <v>0.2051135003566742</v>
+        <v>0.2125988155603409</v>
       </c>
       <c r="G2">
-        <v>0.1353449523448944</v>
+        <v>0.1123134344816208</v>
       </c>
       <c r="H2">
-        <v>0.2409593760967255</v>
+        <v>0.2855490446090698</v>
       </c>
       <c r="I2">
-        <v>0.1573428958654404</v>
+        <v>0.1115042418241501</v>
       </c>
       <c r="J2">
-        <v>0.7147032022476196</v>
+        <v>0.2126917243003845</v>
       </c>
       <c r="K2">
-        <v>0.1649211347103119</v>
+        <v>0.2041029036045074</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -1331,34 +1331,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.5457777380943298</v>
+        <v>0.1578553020954132</v>
       </c>
       <c r="C3">
-        <v>0.4354175329208374</v>
+        <v>0.1694379448890686</v>
       </c>
       <c r="D3">
-        <v>0.9988842010498047</v>
+        <v>0.8296124339103699</v>
       </c>
       <c r="E3">
-        <v>0.5068061351776123</v>
+        <v>0.07536220550537109</v>
       </c>
       <c r="F3">
-        <v>0.4105469882488251</v>
+        <v>0.1440577507019043</v>
       </c>
       <c r="G3">
-        <v>0.5259205102920532</v>
+        <v>0.100159153342247</v>
       </c>
       <c r="H3">
-        <v>0.5302339792251587</v>
+        <v>0.1423828303813934</v>
       </c>
       <c r="I3">
-        <v>0.5444063544273376</v>
+        <v>0.07241838425397873</v>
       </c>
       <c r="J3">
-        <v>0.9352222681045532</v>
+        <v>0.06618134677410126</v>
       </c>
       <c r="K3">
-        <v>0.5463929176330566</v>
+        <v>0.0764005035161972</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -1366,34 +1366,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.5797840356826782</v>
+        <v>0.1440658718347549</v>
       </c>
       <c r="C4">
-        <v>0.4398285746574402</v>
+        <v>0.06086371466517448</v>
       </c>
       <c r="D4">
-        <v>0.9998247623443604</v>
+        <v>0.8768981099128723</v>
       </c>
       <c r="E4">
-        <v>0.5589342713356018</v>
+        <v>0.1706232279539108</v>
       </c>
       <c r="F4">
-        <v>0.5306556224822998</v>
+        <v>0.09005120396614075</v>
       </c>
       <c r="G4">
-        <v>0.5707130432128906</v>
+        <v>0.07009704411029816</v>
       </c>
       <c r="H4">
-        <v>0.5719642639160156</v>
+        <v>0.08305130898952484</v>
       </c>
       <c r="I4">
-        <v>0.579343855381012</v>
+        <v>0.02062770910561085</v>
       </c>
       <c r="J4">
-        <v>0.9844850301742554</v>
+        <v>0.1614999324083328</v>
       </c>
       <c r="K4">
-        <v>0.5794921517372131</v>
+        <v>0.1725009083747864</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -1401,34 +1401,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.5804165005683899</v>
+        <v>0.06068070605397224</v>
       </c>
       <c r="C5">
-        <v>0.5095374584197998</v>
+        <v>0.05488631129264832</v>
       </c>
       <c r="D5">
-        <v>0.9998332858085632</v>
+        <v>0.9160451889038086</v>
       </c>
       <c r="E5">
-        <v>0.5650471448898315</v>
+        <v>0.07960475236177444</v>
       </c>
       <c r="F5">
-        <v>0.5416862964630127</v>
+        <v>0.06685508787631989</v>
       </c>
       <c r="G5">
-        <v>0.5736701488494873</v>
+        <v>0.03287972509860992</v>
       </c>
       <c r="H5">
-        <v>0.5753165483474731</v>
+        <v>0.08007192611694336</v>
       </c>
       <c r="I5">
-        <v>0.5802711844444275</v>
+        <v>-0.008205266669392586</v>
       </c>
       <c r="J5">
-        <v>0.9909355640411377</v>
+        <v>0.08508603274822235</v>
       </c>
       <c r="K5">
-        <v>0.5824152231216431</v>
+        <v>0.03743787109851837</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -1436,34 +1436,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.5758609771728516</v>
+        <v>0.01714304834604263</v>
       </c>
       <c r="C6">
-        <v>0.5077170133590698</v>
+        <v>-0.005686001852154732</v>
       </c>
       <c r="D6">
-        <v>0.9998689889907837</v>
+        <v>0.9257199764251709</v>
       </c>
       <c r="E6">
-        <v>0.5549008846282959</v>
+        <v>0.0497446283698082</v>
       </c>
       <c r="F6">
-        <v>0.5320945978164673</v>
+        <v>0.02562783285975456</v>
       </c>
       <c r="G6">
-        <v>0.5654518604278564</v>
+        <v>-0.03195403888821602</v>
       </c>
       <c r="H6">
-        <v>0.5781493186950684</v>
+        <v>0.05574041604995728</v>
       </c>
       <c r="I6">
-        <v>0.5754435658454895</v>
+        <v>-0.06366327404975891</v>
       </c>
       <c r="J6">
-        <v>0.9874726533889771</v>
+        <v>0.1028168946504593</v>
       </c>
       <c r="K6">
-        <v>0.5883705615997314</v>
+        <v>0.06515956670045853</v>
       </c>
     </row>
   </sheetData>
@@ -1516,34 +1516,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1632052510976791</v>
+        <v>0.06808830797672272</v>
       </c>
       <c r="C2">
-        <v>-0.03647637739777565</v>
+        <v>0.2380993664264679</v>
       </c>
       <c r="D2">
-        <v>0.14231076836586</v>
+        <v>0.1918933689594269</v>
       </c>
       <c r="E2">
-        <v>0.1547787338495255</v>
+        <v>0.7609809637069702</v>
       </c>
       <c r="F2">
-        <v>0.2533115446567535</v>
+        <v>0.2274351716041565</v>
       </c>
       <c r="G2">
-        <v>0.1979294568300247</v>
+        <v>0.2155661880970001</v>
       </c>
       <c r="H2">
-        <v>0.1238949075341225</v>
+        <v>0.2853512167930603</v>
       </c>
       <c r="I2">
-        <v>0.1183051317930222</v>
+        <v>0.09463918209075928</v>
       </c>
       <c r="J2">
-        <v>0.1903712302446365</v>
+        <v>0.8663222193717957</v>
       </c>
       <c r="K2">
-        <v>0.7939572334289551</v>
+        <v>0.8115872740745544</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -1551,34 +1551,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.5767962336540222</v>
+        <v>0.07628564536571503</v>
       </c>
       <c r="C3">
-        <v>0.4017785489559174</v>
+        <v>0.1051559671759605</v>
       </c>
       <c r="D3">
-        <v>0.54350745677948</v>
+        <v>0.07217852771282196</v>
       </c>
       <c r="E3">
-        <v>0.5197638273239136</v>
+        <v>0.8422709703445435</v>
       </c>
       <c r="F3">
-        <v>0.3948600888252258</v>
+        <v>0.2119067311286926</v>
       </c>
       <c r="G3">
-        <v>0.5469643473625183</v>
+        <v>0.2033283859491348</v>
       </c>
       <c r="H3">
-        <v>0.5503923296928406</v>
+        <v>0.1362476050853729</v>
       </c>
       <c r="I3">
-        <v>0.574636697769165</v>
+        <v>0.08809754252433777</v>
       </c>
       <c r="J3">
-        <v>0.4121129214763641</v>
+        <v>0.8482258319854736</v>
       </c>
       <c r="K3">
-        <v>0.9997080564498901</v>
+        <v>0.8776277899742126</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -1586,34 +1586,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.5884461402893066</v>
+        <v>0.01628567464649677</v>
       </c>
       <c r="C4">
-        <v>0.432727038860321</v>
+        <v>0.141773447394371</v>
       </c>
       <c r="D4">
-        <v>0.578194797039032</v>
+        <v>0.1726630926132202</v>
       </c>
       <c r="E4">
-        <v>0.5655215382575989</v>
+        <v>0.8783265352249146</v>
       </c>
       <c r="F4">
-        <v>0.5341855883598328</v>
+        <v>0.0245650839060545</v>
       </c>
       <c r="G4">
-        <v>0.5790045261383057</v>
+        <v>0.1333708316087723</v>
       </c>
       <c r="H4">
-        <v>0.5794247984886169</v>
+        <v>0.1269215047359467</v>
       </c>
       <c r="I4">
-        <v>0.5881710052490234</v>
+        <v>0.02396918088197708</v>
       </c>
       <c r="J4">
-        <v>0.52482008934021</v>
+        <v>0.8937671184539795</v>
       </c>
       <c r="K4">
-        <v>0.9999762177467346</v>
+        <v>0.8713778257369995</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -1621,34 +1621,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.5890457630157471</v>
+        <v>0.03025326132774353</v>
       </c>
       <c r="C5">
-        <v>0.5041710138320923</v>
+        <v>0.02544371597468853</v>
       </c>
       <c r="D5">
-        <v>0.5800809860229492</v>
+        <v>0.06731459498405457</v>
       </c>
       <c r="E5">
-        <v>0.5722829103469849</v>
+        <v>0.7843565940856934</v>
       </c>
       <c r="F5">
-        <v>0.5450669527053833</v>
+        <v>0.1160708516836166</v>
       </c>
       <c r="G5">
-        <v>0.5815269947052002</v>
+        <v>0.1044439151883125</v>
       </c>
       <c r="H5">
-        <v>0.581418514251709</v>
+        <v>0.0746140331029892</v>
       </c>
       <c r="I5">
-        <v>0.5889789462089539</v>
+        <v>-0.002923788502812386</v>
       </c>
       <c r="J5">
-        <v>0.545526385307312</v>
+        <v>0.8213790655136108</v>
       </c>
       <c r="K5">
-        <v>0.9998821020126343</v>
+        <v>0.8002783060073853</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -1656,34 +1656,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.5880223512649536</v>
+        <v>-0.07042235136032104</v>
       </c>
       <c r="C6">
-        <v>0.5057113170623779</v>
+        <v>0.09759952127933502</v>
       </c>
       <c r="D6">
-        <v>0.589602530002594</v>
+        <v>0.07166572660207748</v>
       </c>
       <c r="E6">
-        <v>0.5647063851356506</v>
+        <v>0.7188685536384583</v>
       </c>
       <c r="F6">
-        <v>0.5137826800346375</v>
+        <v>-0.03502493351697922</v>
       </c>
       <c r="G6">
-        <v>0.5764603018760681</v>
+        <v>0.07773242145776749</v>
       </c>
       <c r="H6">
-        <v>0.5725505352020264</v>
+        <v>0.0642220750451088</v>
       </c>
       <c r="I6">
-        <v>0.5873931646347046</v>
+        <v>0.00694590900093317</v>
       </c>
       <c r="J6">
-        <v>0.5343276262283325</v>
+        <v>0.7561708688735962</v>
       </c>
       <c r="K6">
-        <v>0.9997563362121582</v>
+        <v>0.7990379333496094</v>
       </c>
     </row>
   </sheetData>
@@ -1736,34 +1736,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.06132591888308525</v>
+        <v>0.1210604608058929</v>
       </c>
       <c r="C2">
-        <v>-0.06744042038917542</v>
+        <v>0.3885734379291534</v>
       </c>
       <c r="D2">
-        <v>0.1281023323535919</v>
+        <v>0.1042700037360191</v>
       </c>
       <c r="E2">
-        <v>0.1182119101285934</v>
+        <v>0.1759639382362366</v>
       </c>
       <c r="F2">
-        <v>0.7791873216629028</v>
+        <v>0.1249632239341736</v>
       </c>
       <c r="G2">
-        <v>0.7936660051345825</v>
+        <v>0.7852685451507568</v>
       </c>
       <c r="H2">
-        <v>0.09667551517486572</v>
+        <v>0.3573179244995117</v>
       </c>
       <c r="I2">
-        <v>0.09791342914104462</v>
+        <v>0.1520669013261795</v>
       </c>
       <c r="J2">
-        <v>0.1362442374229431</v>
+        <v>0.1949425339698792</v>
       </c>
       <c r="K2">
-        <v>0.2130026519298553</v>
+        <v>0.1871171444654465</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -1771,34 +1771,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.5463697910308838</v>
+        <v>0.1814409792423248</v>
       </c>
       <c r="C3">
-        <v>0.4334672093391418</v>
+        <v>0.3968890011310577</v>
       </c>
       <c r="D3">
-        <v>0.5240024328231812</v>
+        <v>0.07400789856910706</v>
       </c>
       <c r="E3">
-        <v>0.5065807700157166</v>
+        <v>0.1878246515989304</v>
       </c>
       <c r="F3">
-        <v>0.9278856515884399</v>
+        <v>0.1585584878921509</v>
       </c>
       <c r="G3">
-        <v>0.9997292757034302</v>
+        <v>0.856844425201416</v>
       </c>
       <c r="H3">
-        <v>0.5294471383094788</v>
+        <v>0.3728311657905579</v>
       </c>
       <c r="I3">
-        <v>0.5449038743972778</v>
+        <v>0.1981867253780365</v>
       </c>
       <c r="J3">
-        <v>0.4253464043140411</v>
+        <v>0.1402392089366913</v>
       </c>
       <c r="K3">
-        <v>0.5471810698509216</v>
+        <v>0.1572894901037216</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -1806,34 +1806,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.5775913000106812</v>
+        <v>0.1685692965984344</v>
       </c>
       <c r="C4">
-        <v>0.440896213054657</v>
+        <v>0.2889590263366699</v>
       </c>
       <c r="D4">
-        <v>0.5695610046386719</v>
+        <v>0.05878401547670364</v>
       </c>
       <c r="E4">
-        <v>0.5572200417518616</v>
+        <v>0.1121588349342346</v>
       </c>
       <c r="F4">
-        <v>0.9890856146812439</v>
+        <v>0.0600307360291481</v>
       </c>
       <c r="G4">
-        <v>0.9996156692504883</v>
+        <v>0.9338127374649048</v>
       </c>
       <c r="H4">
-        <v>0.5692623257637024</v>
+        <v>0.2841058373451233</v>
       </c>
       <c r="I4">
-        <v>0.5771059989929199</v>
+        <v>0.1132488697767258</v>
       </c>
       <c r="J4">
-        <v>0.5201399326324463</v>
+        <v>0.1291677057743073</v>
       </c>
       <c r="K4">
-        <v>0.5774972438812256</v>
+        <v>0.1582580804824829</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -1841,34 +1841,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.5795114040374756</v>
+        <v>0.1032082438468933</v>
       </c>
       <c r="C5">
-        <v>0.5103771090507507</v>
+        <v>0.2840758562088013</v>
       </c>
       <c r="D5">
-        <v>0.5695263147354126</v>
+        <v>-0.0155258746817708</v>
       </c>
       <c r="E5">
-        <v>0.5643446445465088</v>
+        <v>0.1125127673149109</v>
       </c>
       <c r="F5">
-        <v>0.9931126236915588</v>
+        <v>0.04784636944532394</v>
       </c>
       <c r="G5">
-        <v>0.9999281167984009</v>
+        <v>0.8111724853515625</v>
       </c>
       <c r="H5">
-        <v>0.5731205940246582</v>
+        <v>0.2657768428325653</v>
       </c>
       <c r="I5">
-        <v>0.5793704986572266</v>
+        <v>0.06104711815714836</v>
       </c>
       <c r="J5">
-        <v>0.541483998298645</v>
+        <v>0.09796606749296188</v>
       </c>
       <c r="K5">
-        <v>0.5800656080245972</v>
+        <v>0.1289843916893005</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -1876,34 +1876,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.577306866645813</v>
+        <v>0.07045863568782806</v>
       </c>
       <c r="C6">
-        <v>0.5130141377449036</v>
+        <v>0.212534174323082</v>
       </c>
       <c r="D6">
-        <v>0.5666877031326294</v>
+        <v>-0.03666450828313828</v>
       </c>
       <c r="E6">
-        <v>0.5570473074913025</v>
+        <v>0.08785666525363922</v>
       </c>
       <c r="F6">
-        <v>0.9864842891693115</v>
+        <v>-0.01823090389370918</v>
       </c>
       <c r="G6">
-        <v>0.9998793601989746</v>
+        <v>0.9049141407012939</v>
       </c>
       <c r="H6">
-        <v>0.5637784600257874</v>
+        <v>0.2171912044286728</v>
       </c>
       <c r="I6">
-        <v>0.5769387483596802</v>
+        <v>0.04957393929362297</v>
       </c>
       <c r="J6">
-        <v>0.5310419201850891</v>
+        <v>0.0759071409702301</v>
       </c>
       <c r="K6">
-        <v>0.5775407552719116</v>
+        <v>0.08663564920425415</v>
       </c>
     </row>
   </sheetData>
@@ -1956,34 +1956,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1951143592596054</v>
+        <v>0.07954271882772446</v>
       </c>
       <c r="C2">
-        <v>-0.0612410269677639</v>
+        <v>0.156079113483429</v>
       </c>
       <c r="D2">
-        <v>0.1998669356107712</v>
+        <v>0.1231333762407303</v>
       </c>
       <c r="E2">
-        <v>0.1492047905921936</v>
+        <v>0.1076884865760803</v>
       </c>
       <c r="F2">
-        <v>0.1616575568914413</v>
+        <v>0.0966041088104248</v>
       </c>
       <c r="G2">
-        <v>0.1129295974969864</v>
+        <v>0.1570418179035187</v>
       </c>
       <c r="H2">
-        <v>0.09808647632598877</v>
+        <v>0.1389812380075455</v>
       </c>
       <c r="I2">
-        <v>0.71307373046875</v>
+        <v>0.7566089630126953</v>
       </c>
       <c r="J2">
-        <v>0.1792190372943878</v>
+        <v>0.09355966746807098</v>
       </c>
       <c r="K2">
-        <v>0.1690023392438889</v>
+        <v>0.08806832879781723</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -1991,34 +1991,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.574982225894928</v>
+        <v>0.093767449259758</v>
       </c>
       <c r="C3">
-        <v>0.3994748592376709</v>
+        <v>0.1975647211074829</v>
       </c>
       <c r="D3">
-        <v>0.5409550666809082</v>
+        <v>0.0588831752538681</v>
       </c>
       <c r="E3">
-        <v>0.5176956057548523</v>
+        <v>0.1114565879106522</v>
       </c>
       <c r="F3">
-        <v>0.3924444913864136</v>
+        <v>0.173524022102356</v>
       </c>
       <c r="G3">
-        <v>0.5444009304046631</v>
+        <v>0.1969122290611267</v>
       </c>
       <c r="H3">
-        <v>0.549394965171814</v>
+        <v>0.1789278090000153</v>
       </c>
       <c r="I3">
-        <v>0.9997571110725403</v>
+        <v>0.8333072662353516</v>
       </c>
       <c r="J3">
-        <v>0.4110438227653503</v>
+        <v>0.07525521516799927</v>
       </c>
       <c r="K3">
-        <v>0.5766000747680664</v>
+        <v>0.06782808899879456</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -2026,34 +2026,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.588443398475647</v>
+        <v>0.08302786946296692</v>
       </c>
       <c r="C4">
-        <v>0.42734494805336</v>
+        <v>0.1058915480971336</v>
       </c>
       <c r="D4">
-        <v>0.5792862176895142</v>
+        <v>0.004801093600690365</v>
       </c>
       <c r="E4">
-        <v>0.5647643804550171</v>
+        <v>0.04100415110588074</v>
       </c>
       <c r="F4">
-        <v>0.531869649887085</v>
+        <v>0.04182121530175209</v>
       </c>
       <c r="G4">
-        <v>0.5784820318222046</v>
+        <v>0.1002079322934151</v>
       </c>
       <c r="H4">
-        <v>0.5790641307830811</v>
+        <v>0.09060503542423248</v>
       </c>
       <c r="I4">
-        <v>0.9997925758361816</v>
+        <v>0.8133823871612549</v>
       </c>
       <c r="J4">
-        <v>0.5236355066299438</v>
+        <v>0.04132827371358871</v>
       </c>
       <c r="K4">
-        <v>0.5885027647018433</v>
+        <v>0.06009350717067719</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -2061,34 +2061,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.5887398719787598</v>
+        <v>0.05239435657858849</v>
       </c>
       <c r="C5">
-        <v>0.5002075433731079</v>
+        <v>0.05972015857696533</v>
       </c>
       <c r="D5">
-        <v>0.5777376294136047</v>
+        <v>-0.003300429321825504</v>
       </c>
       <c r="E5">
-        <v>0.5715975761413574</v>
+        <v>-0.01575747691094875</v>
       </c>
       <c r="F5">
-        <v>0.5476107597351074</v>
+        <v>0.04926395788788795</v>
       </c>
       <c r="G5">
-        <v>0.5811633467674255</v>
+        <v>0.08550297468900681</v>
       </c>
       <c r="H5">
-        <v>0.5815848112106323</v>
+        <v>0.02159230597317219</v>
       </c>
       <c r="I5">
-        <v>0.9998223781585693</v>
+        <v>0.9011832475662231</v>
       </c>
       <c r="J5">
-        <v>0.5464127659797668</v>
+        <v>-0.002224397845566273</v>
       </c>
       <c r="K5">
-        <v>0.5895201563835144</v>
+        <v>-0.0290926955640316</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -2096,34 +2096,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.5877954959869385</v>
+        <v>0.05104295909404755</v>
       </c>
       <c r="C6">
-        <v>0.5018286108970642</v>
+        <v>0.06829555332660675</v>
       </c>
       <c r="D6">
-        <v>0.5760934352874756</v>
+        <v>-0.07752548158168793</v>
       </c>
       <c r="E6">
-        <v>0.5643278360366821</v>
+        <v>-0.04189299046993256</v>
       </c>
       <c r="F6">
-        <v>0.5442988872528076</v>
+        <v>-0.01863239891827106</v>
       </c>
       <c r="G6">
-        <v>0.5760814547538757</v>
+        <v>0.06862889230251312</v>
       </c>
       <c r="H6">
-        <v>0.5729523897171021</v>
+        <v>-0.01070897839963436</v>
       </c>
       <c r="I6">
-        <v>0.9999074935913086</v>
+        <v>0.9454997777938843</v>
       </c>
       <c r="J6">
-        <v>0.535239577293396</v>
+        <v>-0.01580751873552799</v>
       </c>
       <c r="K6">
-        <v>0.5878521203994751</v>
+        <v>-0.01524477452039719</v>
       </c>
     </row>
   </sheetData>

--- a/Results/lenet_mnist_10clients_0.1_niid2_phase3/lenet_mnist_10clients_0.1_niid2_phase3.xlsx
+++ b/Results/lenet_mnist_10clients_0.1_niid2_phase3/lenet_mnist_10clients_0.1_niid2_phase3.xlsx
@@ -416,34 +416,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.9991452097892761</v>
+        <v>1.00000011920929</v>
       </c>
       <c r="C2">
-        <v>0.1430338472127914</v>
+        <v>0.1358344554901123</v>
       </c>
       <c r="D2">
-        <v>0.1129700616002083</v>
+        <v>0.1646945625543594</v>
       </c>
       <c r="E2">
-        <v>0.07411432266235352</v>
+        <v>0.1227613016963005</v>
       </c>
       <c r="F2">
-        <v>0.3330666422843933</v>
+        <v>0.8081197738647461</v>
       </c>
       <c r="G2">
-        <v>0.1182633638381958</v>
+        <v>0.09669344872236252</v>
       </c>
       <c r="H2">
-        <v>0.1370221972465515</v>
+        <v>0.7837507724761963</v>
       </c>
       <c r="I2">
-        <v>0.05858461558818817</v>
+        <v>0.2377668023109436</v>
       </c>
       <c r="J2">
-        <v>0.07407677173614502</v>
+        <v>0.1585642099380493</v>
       </c>
       <c r="K2">
-        <v>0.07664929330348969</v>
+        <v>0.07772890478372574</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -451,34 +451,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.8419144749641418</v>
+        <v>0.9343741536140442</v>
       </c>
       <c r="C3">
-        <v>0.181389331817627</v>
+        <v>0.2052501738071442</v>
       </c>
       <c r="D3">
-        <v>0.1430712789297104</v>
+        <v>0.1994089335203171</v>
       </c>
       <c r="E3">
-        <v>0.09731531143188477</v>
+        <v>0.2073631286621094</v>
       </c>
       <c r="F3">
-        <v>0.3873530924320221</v>
+        <v>0.9473968744277954</v>
       </c>
       <c r="G3">
-        <v>0.193472146987915</v>
+        <v>0.1118281334638596</v>
       </c>
       <c r="H3">
-        <v>0.1903690099716187</v>
+        <v>0.9259982109069824</v>
       </c>
       <c r="I3">
-        <v>0.1231686249375343</v>
+        <v>0.2360902726650238</v>
       </c>
       <c r="J3">
-        <v>0.1021569520235062</v>
+        <v>0.2116218060255051</v>
       </c>
       <c r="K3">
-        <v>0.08475363254547119</v>
+        <v>0.166813999414444</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -486,34 +486,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.8995354771614075</v>
+        <v>0.8852958679199219</v>
       </c>
       <c r="C4">
-        <v>0.1335157454013824</v>
+        <v>0.1496267169713974</v>
       </c>
       <c r="D4">
-        <v>0.1284172236919403</v>
+        <v>0.1635912358760834</v>
       </c>
       <c r="E4">
-        <v>-0.007593263871967793</v>
+        <v>0.1731123030185699</v>
       </c>
       <c r="F4">
-        <v>0.3825095891952515</v>
+        <v>0.8663203716278076</v>
       </c>
       <c r="G4">
-        <v>0.1504358649253845</v>
+        <v>0.0716448575258255</v>
       </c>
       <c r="H4">
-        <v>0.126821756362915</v>
+        <v>0.8645830154418945</v>
       </c>
       <c r="I4">
-        <v>0.07927840948104858</v>
+        <v>0.05668269097805023</v>
       </c>
       <c r="J4">
-        <v>-0.00854152999818325</v>
+        <v>0.08958299458026886</v>
       </c>
       <c r="K4">
-        <v>0.001116545405238867</v>
+        <v>0.1052618473768234</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -521,34 +521,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.913134753704071</v>
+        <v>0.8347985148429871</v>
       </c>
       <c r="C5">
-        <v>0.120390996336937</v>
+        <v>-0.05609197169542313</v>
       </c>
       <c r="D5">
-        <v>0.06555307656526566</v>
+        <v>-0.04822543635964394</v>
       </c>
       <c r="E5">
-        <v>-0.02022845298051834</v>
+        <v>0.04890987277030945</v>
       </c>
       <c r="F5">
-        <v>0.3297795057296753</v>
+        <v>0.7700681686401367</v>
       </c>
       <c r="G5">
-        <v>0.1489598304033279</v>
+        <v>-0.01090971659868956</v>
       </c>
       <c r="H5">
-        <v>0.1687866002321243</v>
+        <v>0.804323673248291</v>
       </c>
       <c r="I5">
-        <v>0.04280069097876549</v>
+        <v>-0.05340160429477692</v>
       </c>
       <c r="J5">
-        <v>0.00457511143758893</v>
+        <v>0.01468303520232439</v>
       </c>
       <c r="K5">
-        <v>-0.003563819685950875</v>
+        <v>-0.005829458590596914</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -556,34 +556,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.8964793682098389</v>
+        <v>0.7920097708702087</v>
       </c>
       <c r="C6">
-        <v>0.08856886625289917</v>
+        <v>0.03135493397712708</v>
       </c>
       <c r="D6">
-        <v>0.01560960058122873</v>
+        <v>0.01567254215478897</v>
       </c>
       <c r="E6">
-        <v>-0.08547504246234894</v>
+        <v>0.1205809414386749</v>
       </c>
       <c r="F6">
-        <v>0.2865765392780304</v>
+        <v>0.7236863374710083</v>
       </c>
       <c r="G6">
-        <v>0.08626220375299454</v>
+        <v>-0.02260030433535576</v>
       </c>
       <c r="H6">
-        <v>0.09404757618904114</v>
+        <v>0.7034350633621216</v>
       </c>
       <c r="I6">
-        <v>0.06193898618221283</v>
+        <v>-0.00490587018430233</v>
       </c>
       <c r="J6">
-        <v>-0.06840409338474274</v>
+        <v>-0.0003384044393897057</v>
       </c>
       <c r="K6">
-        <v>-0.07772132754325867</v>
+        <v>-0.005084570031613111</v>
       </c>
     </row>
   </sheetData>
@@ -636,34 +636,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.350502073764801</v>
+        <v>0.8606536388397217</v>
       </c>
       <c r="C2">
-        <v>0.2452934682369232</v>
+        <v>0.1584006547927856</v>
       </c>
       <c r="D2">
-        <v>0.182460755109787</v>
+        <v>0.1794483512639999</v>
       </c>
       <c r="E2">
-        <v>0.2243736386299133</v>
+        <v>0.1316729784011841</v>
       </c>
       <c r="F2">
-        <v>0.8505153656005859</v>
+        <v>0.8458702564239502</v>
       </c>
       <c r="G2">
-        <v>0.1597947329282761</v>
+        <v>0.09490013122558594</v>
       </c>
       <c r="H2">
-        <v>0.2617316842079163</v>
+        <v>0.8076840043067932</v>
       </c>
       <c r="I2">
-        <v>0.1087449342012405</v>
+        <v>0.2047312557697296</v>
       </c>
       <c r="J2">
-        <v>0.2167065441608429</v>
+        <v>0.1471687704324722</v>
       </c>
       <c r="K2">
-        <v>0.1935644745826721</v>
+        <v>0.08820998668670654</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -671,34 +671,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.3871906995773315</v>
+        <v>0.8786544799804688</v>
       </c>
       <c r="C3">
-        <v>0.189569279551506</v>
+        <v>0.1970496028661728</v>
       </c>
       <c r="D3">
-        <v>0.1368758976459503</v>
+        <v>0.1726111322641373</v>
       </c>
       <c r="E3">
-        <v>0.244110107421875</v>
+        <v>0.2061279118061066</v>
       </c>
       <c r="F3">
-        <v>0.9107834100723267</v>
+        <v>0.9276375770568848</v>
       </c>
       <c r="G3">
-        <v>0.171284019947052</v>
+        <v>0.09282606840133667</v>
       </c>
       <c r="H3">
-        <v>0.2163459211587906</v>
+        <v>0.9278024435043335</v>
       </c>
       <c r="I3">
-        <v>0.1827108561992645</v>
+        <v>0.2040458023548126</v>
       </c>
       <c r="J3">
-        <v>0.2393665611743927</v>
+        <v>0.1749669313430786</v>
       </c>
       <c r="K3">
-        <v>0.2090193033218384</v>
+        <v>0.1554645001888275</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -706,34 +706,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.3778550028800964</v>
+        <v>0.8784988522529602</v>
       </c>
       <c r="C4">
-        <v>0.1223528683185577</v>
+        <v>0.1693954169750214</v>
       </c>
       <c r="D4">
-        <v>0.08537266403436661</v>
+        <v>0.1830759346485138</v>
       </c>
       <c r="E4">
-        <v>0.06688345968723297</v>
+        <v>0.1255665123462677</v>
       </c>
       <c r="F4">
-        <v>0.9133873581886292</v>
+        <v>0.8932998180389404</v>
       </c>
       <c r="G4">
-        <v>0.06541002541780472</v>
+        <v>0.06919275969266891</v>
       </c>
       <c r="H4">
-        <v>0.1426856368780136</v>
+        <v>0.9095568656921387</v>
       </c>
       <c r="I4">
-        <v>0.06092706322669983</v>
+        <v>0.07539106905460358</v>
       </c>
       <c r="J4">
-        <v>0.03038531728088856</v>
+        <v>0.101805217564106</v>
       </c>
       <c r="K4">
-        <v>0.03705256432294846</v>
+        <v>0.09570464491844177</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -741,34 +741,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.3556812703609467</v>
+        <v>0.8311746120452881</v>
       </c>
       <c r="C5">
-        <v>0.0834089070558548</v>
+        <v>-0.01281663868576288</v>
       </c>
       <c r="D5">
-        <v>0.06054500490427017</v>
+        <v>-0.008941195905208588</v>
       </c>
       <c r="E5">
-        <v>0.09228980541229248</v>
+        <v>0.02775756269693375</v>
       </c>
       <c r="F5">
-        <v>0.8730734586715698</v>
+        <v>0.8605853319168091</v>
       </c>
       <c r="G5">
-        <v>0.01889570616185665</v>
+        <v>0.001316852867603302</v>
       </c>
       <c r="H5">
-        <v>0.1103140786290169</v>
+        <v>0.7985787391662598</v>
       </c>
       <c r="I5">
-        <v>0.05081800371408463</v>
+        <v>-0.06842898577451706</v>
       </c>
       <c r="J5">
-        <v>0.09400218725204468</v>
+        <v>0.008157270029187202</v>
       </c>
       <c r="K5">
-        <v>0.1177549064159393</v>
+        <v>-0.0124275591224432</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -776,34 +776,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.3034168779850006</v>
+        <v>0.7708529829978943</v>
       </c>
       <c r="C6">
-        <v>0.06663787364959717</v>
+        <v>-0.02914125472307205</v>
       </c>
       <c r="D6">
-        <v>0.05173321813344955</v>
+        <v>-0.0512566827237606</v>
       </c>
       <c r="E6">
-        <v>0.002351698465645313</v>
+        <v>0.06080910190939903</v>
       </c>
       <c r="F6">
-        <v>0.8529447317123413</v>
+        <v>0.8487908840179443</v>
       </c>
       <c r="G6">
-        <v>-0.0005376278422772884</v>
+        <v>-0.04494178295135498</v>
       </c>
       <c r="H6">
-        <v>0.1356476545333862</v>
+        <v>0.7207457423210144</v>
       </c>
       <c r="I6">
-        <v>-0.001974189653992653</v>
+        <v>0.007528025656938553</v>
       </c>
       <c r="J6">
-        <v>-0.01525519043207169</v>
+        <v>0.01404054090380669</v>
       </c>
       <c r="K6">
-        <v>-0.005265089683234692</v>
+        <v>-0.04541759192943573</v>
       </c>
     </row>
   </sheetData>
@@ -856,34 +856,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1414919048547745</v>
+        <v>0.1618914753198624</v>
       </c>
       <c r="C2">
-        <v>0.8990633487701416</v>
+        <v>0.8354575037956238</v>
       </c>
       <c r="D2">
-        <v>0.2782445549964905</v>
+        <v>0.8135662078857422</v>
       </c>
       <c r="E2">
-        <v>0.3091765344142914</v>
+        <v>0.04843144118785858</v>
       </c>
       <c r="F2">
-        <v>0.2737420797348022</v>
+        <v>0.2021635174751282</v>
       </c>
       <c r="G2">
-        <v>0.3821729421615601</v>
+        <v>0.1229560375213623</v>
       </c>
       <c r="H2">
-        <v>0.9175184369087219</v>
+        <v>0.2010228335857391</v>
       </c>
       <c r="I2">
-        <v>0.1603566706180573</v>
+        <v>0.2653697729110718</v>
       </c>
       <c r="J2">
-        <v>0.2785451412200928</v>
+        <v>0.0714857429265976</v>
       </c>
       <c r="K2">
-        <v>0.2888079285621643</v>
+        <v>0.04475803673267365</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -891,34 +891,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.1939617395401001</v>
+        <v>0.1995852589607239</v>
       </c>
       <c r="C3">
-        <v>0.8696486353874207</v>
+        <v>0.8849740028381348</v>
       </c>
       <c r="D3">
-        <v>0.1590847671031952</v>
+        <v>0.9228565692901611</v>
       </c>
       <c r="E3">
-        <v>0.1437400579452515</v>
+        <v>0.08981522917747498</v>
       </c>
       <c r="F3">
-        <v>0.249093160033226</v>
+        <v>0.1903302669525146</v>
       </c>
       <c r="G3">
-        <v>0.3911994099617004</v>
+        <v>0.2070819437503815</v>
       </c>
       <c r="H3">
-        <v>0.8995330333709717</v>
+        <v>0.1611753106117249</v>
       </c>
       <c r="I3">
-        <v>0.1953214406967163</v>
+        <v>0.2186927050352097</v>
       </c>
       <c r="J3">
-        <v>0.1058831959962845</v>
+        <v>0.1142501309514046</v>
       </c>
       <c r="K3">
-        <v>0.1127302944660187</v>
+        <v>0.1737241446971893</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -926,34 +926,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.154995858669281</v>
+        <v>0.1093160733580589</v>
       </c>
       <c r="C4">
-        <v>0.8059124350547791</v>
+        <v>0.869793176651001</v>
       </c>
       <c r="D4">
-        <v>0.1323618590831757</v>
+        <v>0.8484855890274048</v>
       </c>
       <c r="E4">
-        <v>0.1207740902900696</v>
+        <v>0.1364204585552216</v>
       </c>
       <c r="F4">
-        <v>0.1570538282394409</v>
+        <v>0.1072836071252823</v>
       </c>
       <c r="G4">
-        <v>0.3039008378982544</v>
+        <v>0.1866773366928101</v>
       </c>
       <c r="H4">
-        <v>0.8017264604568481</v>
+        <v>0.112811341881752</v>
       </c>
       <c r="I4">
-        <v>0.06702704727649689</v>
+        <v>0.03100415877997875</v>
       </c>
       <c r="J4">
-        <v>0.09318554401397705</v>
+        <v>-0.01446091663092375</v>
       </c>
       <c r="K4">
-        <v>0.1034483462572098</v>
+        <v>0.1861132085323334</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -961,34 +961,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.1615512371063232</v>
+        <v>-0.0284234918653965</v>
       </c>
       <c r="C5">
-        <v>0.8003090620040894</v>
+        <v>0.8000969886779785</v>
       </c>
       <c r="D5">
-        <v>0.04233547300100327</v>
+        <v>0.8393410444259644</v>
       </c>
       <c r="E5">
-        <v>0.07620251178741455</v>
+        <v>0.1055109947919846</v>
       </c>
       <c r="F5">
-        <v>0.1230612993240356</v>
+        <v>-0.00208413228392601</v>
       </c>
       <c r="G5">
-        <v>0.3290358781814575</v>
+        <v>0.1725577116012573</v>
       </c>
       <c r="H5">
-        <v>0.7997640371322632</v>
+        <v>-0.05647248029708862</v>
       </c>
       <c r="I5">
-        <v>0.0544796921312809</v>
+        <v>0.05418259650468826</v>
       </c>
       <c r="J5">
-        <v>0.06331096589565277</v>
+        <v>0.02589668706059456</v>
       </c>
       <c r="K5">
-        <v>0.06093533337116241</v>
+        <v>0.05260613188147545</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -996,34 +996,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.1257442831993103</v>
+        <v>-0.1013320609927177</v>
       </c>
       <c r="C6">
-        <v>0.7224055528640747</v>
+        <v>0.8324947953224182</v>
       </c>
       <c r="D6">
-        <v>0.0393880307674408</v>
+        <v>0.832542896270752</v>
       </c>
       <c r="E6">
-        <v>0.01604572683572769</v>
+        <v>0.01843154430389404</v>
       </c>
       <c r="F6">
-        <v>0.1403841078281403</v>
+        <v>-0.05656090378761292</v>
       </c>
       <c r="G6">
-        <v>0.230410635471344</v>
+        <v>0.1149886101484299</v>
       </c>
       <c r="H6">
-        <v>0.7006366848945618</v>
+        <v>-0.06883580982685089</v>
       </c>
       <c r="I6">
-        <v>0.002823930233716965</v>
+        <v>-0.02477527782320976</v>
       </c>
       <c r="J6">
-        <v>-0.003441604087129235</v>
+        <v>-0.004399875178933144</v>
       </c>
       <c r="K6">
-        <v>0.03482107073068619</v>
+        <v>0.08336319029331207</v>
       </c>
     </row>
   </sheetData>
@@ -1076,34 +1076,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.0634601041674614</v>
+        <v>0.7506276965141296</v>
       </c>
       <c r="C2">
-        <v>0.3080958127975464</v>
+        <v>0.2089086771011353</v>
       </c>
       <c r="D2">
-        <v>0.2454153895378113</v>
+        <v>0.217355877161026</v>
       </c>
       <c r="E2">
-        <v>0.8791877031326294</v>
+        <v>0.1491650193929672</v>
       </c>
       <c r="F2">
-        <v>0.2427192032337189</v>
+        <v>0.767877459526062</v>
       </c>
       <c r="G2">
-        <v>0.2048051953315735</v>
+        <v>0.1447190046310425</v>
       </c>
       <c r="H2">
-        <v>0.318540096282959</v>
+        <v>0.8192747831344604</v>
       </c>
       <c r="I2">
-        <v>0.106253370642662</v>
+        <v>0.3199987709522247</v>
       </c>
       <c r="J2">
-        <v>0.8389040231704712</v>
+        <v>0.1887162923812866</v>
       </c>
       <c r="K2">
-        <v>0.7740780115127563</v>
+        <v>0.1033351123332977</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -1111,34 +1111,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.09488968551158905</v>
+        <v>0.9086575508117676</v>
       </c>
       <c r="C3">
-        <v>0.05356951057910919</v>
+        <v>0.1908669322729111</v>
       </c>
       <c r="D3">
-        <v>0.1037367656826973</v>
+        <v>0.186607763171196</v>
       </c>
       <c r="E3">
-        <v>0.8824202418327332</v>
+        <v>0.1993834525346756</v>
       </c>
       <c r="F3">
-        <v>0.2022385746240616</v>
+        <v>0.9429115653038025</v>
       </c>
       <c r="G3">
-        <v>0.1839115619659424</v>
+        <v>0.1045909151434898</v>
       </c>
       <c r="H3">
-        <v>0.1182216927409172</v>
+        <v>0.9581396579742432</v>
       </c>
       <c r="I3">
-        <v>0.06563277542591095</v>
+        <v>0.2029796242713928</v>
       </c>
       <c r="J3">
-        <v>0.8938502073287964</v>
+        <v>0.1971440315246582</v>
       </c>
       <c r="K3">
-        <v>0.858808159828186</v>
+        <v>0.1416606903076172</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -1146,34 +1146,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.005149200093001127</v>
+        <v>0.8584789037704468</v>
       </c>
       <c r="C4">
-        <v>0.1313395649194717</v>
+        <v>0.1467185169458389</v>
       </c>
       <c r="D4">
-        <v>0.132334440946579</v>
+        <v>0.1651213318109512</v>
       </c>
       <c r="E4">
-        <v>0.9128333330154419</v>
+        <v>0.1209924444556236</v>
       </c>
       <c r="F4">
-        <v>0.0363755077123642</v>
+        <v>0.8581706285476685</v>
       </c>
       <c r="G4">
-        <v>0.1465888321399689</v>
+        <v>0.05766142159700394</v>
       </c>
       <c r="H4">
-        <v>0.1290293484926224</v>
+        <v>0.9245767593383789</v>
       </c>
       <c r="I4">
-        <v>0.03064368665218353</v>
+        <v>0.09802745282649994</v>
       </c>
       <c r="J4">
-        <v>0.8671112060546875</v>
+        <v>0.09992395341396332</v>
       </c>
       <c r="K4">
-        <v>0.8666530847549438</v>
+        <v>0.1039786711335182</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -1181,34 +1181,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>-0.02230313047766685</v>
+        <v>0.7420438528060913</v>
       </c>
       <c r="C5">
-        <v>0.0690358579158783</v>
+        <v>-0.0547867938876152</v>
       </c>
       <c r="D5">
-        <v>0.05015774816274643</v>
+        <v>-0.01660620979964733</v>
       </c>
       <c r="E5">
-        <v>0.8622767925262451</v>
+        <v>0.06203116476535797</v>
       </c>
       <c r="F5">
-        <v>0.0678262859582901</v>
+        <v>0.7676332592964172</v>
       </c>
       <c r="G5">
-        <v>0.0985918790102005</v>
+        <v>-0.002612702082842588</v>
       </c>
       <c r="H5">
-        <v>0.07840251922607422</v>
+        <v>0.8626178503036499</v>
       </c>
       <c r="I5">
-        <v>-0.02583351545035839</v>
+        <v>-0.03269143775105476</v>
       </c>
       <c r="J5">
-        <v>0.8083022832870483</v>
+        <v>0.02454107254743576</v>
       </c>
       <c r="K5">
-        <v>0.7824476957321167</v>
+        <v>-0.005517307668924332</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -1216,34 +1216,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>-0.07409848272800446</v>
+        <v>0.7172114849090576</v>
       </c>
       <c r="C6">
-        <v>0.0663532167673111</v>
+        <v>-0.009967954829335213</v>
       </c>
       <c r="D6">
-        <v>0.03122150711715221</v>
+        <v>-0.01702314801514149</v>
       </c>
       <c r="E6">
-        <v>0.8538094758987427</v>
+        <v>0.07735462486743927</v>
       </c>
       <c r="F6">
-        <v>-0.002507996745407581</v>
+        <v>0.6846542358398438</v>
       </c>
       <c r="G6">
-        <v>0.1330919712781906</v>
+        <v>-0.05697052925825119</v>
       </c>
       <c r="H6">
-        <v>0.03923232853412628</v>
+        <v>0.7853950262069702</v>
       </c>
       <c r="I6">
-        <v>-0.02549296617507935</v>
+        <v>0.01554913632571697</v>
       </c>
       <c r="J6">
-        <v>0.7714097499847412</v>
+        <v>-0.0004845410585403442</v>
       </c>
       <c r="K6">
-        <v>0.7512955069541931</v>
+        <v>-0.03224990144371986</v>
       </c>
     </row>
   </sheetData>
@@ -1296,34 +1296,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.09490688890218735</v>
+        <v>0.1287597417831421</v>
       </c>
       <c r="C2">
-        <v>0.2774272561073303</v>
+        <v>0.08546820282936096</v>
       </c>
       <c r="D2">
-        <v>0.8550652265548706</v>
+        <v>0.07938092947006226</v>
       </c>
       <c r="E2">
-        <v>0.2526507079601288</v>
+        <v>0.8324843645095825</v>
       </c>
       <c r="F2">
-        <v>0.2125988155603409</v>
+        <v>0.1236069351434708</v>
       </c>
       <c r="G2">
-        <v>0.1123134344816208</v>
+        <v>0.08977284282445908</v>
       </c>
       <c r="H2">
-        <v>0.2855490446090698</v>
+        <v>0.1477611362934113</v>
       </c>
       <c r="I2">
-        <v>0.1115042418241501</v>
+        <v>0.1190079674124718</v>
       </c>
       <c r="J2">
-        <v>0.2126917243003845</v>
+        <v>0.08935750275850296</v>
       </c>
       <c r="K2">
-        <v>0.2041029036045074</v>
+        <v>0.08927552402019501</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -1331,34 +1331,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.1578553020954132</v>
+        <v>0.1687359511852264</v>
       </c>
       <c r="C3">
-        <v>0.1694379448890686</v>
+        <v>0.09458119422197342</v>
       </c>
       <c r="D3">
-        <v>0.8296124339103699</v>
+        <v>0.1195769160985947</v>
       </c>
       <c r="E3">
-        <v>0.07536220550537109</v>
+        <v>0.7342285513877869</v>
       </c>
       <c r="F3">
-        <v>0.1440577507019043</v>
+        <v>0.1437183320522308</v>
       </c>
       <c r="G3">
-        <v>0.100159153342247</v>
+        <v>0.1317128241062164</v>
       </c>
       <c r="H3">
-        <v>0.1423828303813934</v>
+        <v>0.1423725187778473</v>
       </c>
       <c r="I3">
-        <v>0.07241838425397873</v>
+        <v>0.1813098639249802</v>
       </c>
       <c r="J3">
-        <v>0.06618134677410126</v>
+        <v>0.1268841922283173</v>
       </c>
       <c r="K3">
-        <v>0.0764005035161972</v>
+        <v>0.2007557451725006</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -1366,34 +1366,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.1440658718347549</v>
+        <v>0.1245669275522232</v>
       </c>
       <c r="C4">
-        <v>0.06086371466517448</v>
+        <v>0.1440033465623856</v>
       </c>
       <c r="D4">
-        <v>0.8768981099128723</v>
+        <v>0.1275208741426468</v>
       </c>
       <c r="E4">
-        <v>0.1706232279539108</v>
+        <v>0.8116574883460999</v>
       </c>
       <c r="F4">
-        <v>0.09005120396614075</v>
+        <v>0.09981989860534668</v>
       </c>
       <c r="G4">
-        <v>0.07009704411029816</v>
+        <v>0.1540448069572449</v>
       </c>
       <c r="H4">
-        <v>0.08305130898952484</v>
+        <v>0.09793689846992493</v>
       </c>
       <c r="I4">
-        <v>0.02062770910561085</v>
+        <v>0.04153576865792274</v>
       </c>
       <c r="J4">
-        <v>0.1614999324083328</v>
+        <v>0.04327176511287689</v>
       </c>
       <c r="K4">
-        <v>0.1725009083747864</v>
+        <v>0.1191070973873138</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -1401,34 +1401,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.06068070605397224</v>
+        <v>0.05277563631534576</v>
       </c>
       <c r="C5">
-        <v>0.05488631129264832</v>
+        <v>0.1130129918456078</v>
       </c>
       <c r="D5">
-        <v>0.9160451889038086</v>
+        <v>0.1110647395253181</v>
       </c>
       <c r="E5">
-        <v>0.07960475236177444</v>
+        <v>0.9239450693130493</v>
       </c>
       <c r="F5">
-        <v>0.06685508787631989</v>
+        <v>0.06210879236459732</v>
       </c>
       <c r="G5">
-        <v>0.03287972509860992</v>
+        <v>0.1531109511852264</v>
       </c>
       <c r="H5">
-        <v>0.08007192611694336</v>
+        <v>0.03644106909632683</v>
       </c>
       <c r="I5">
-        <v>-0.008205266669392586</v>
+        <v>0.03684798255562782</v>
       </c>
       <c r="J5">
-        <v>0.08508603274822235</v>
+        <v>0.08465283364057541</v>
       </c>
       <c r="K5">
-        <v>0.03743787109851837</v>
+        <v>0.02211316674947739</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -1436,34 +1436,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.01714304834604263</v>
+        <v>0.08493973314762115</v>
       </c>
       <c r="C6">
-        <v>-0.005686001852154732</v>
+        <v>0.06758831441402435</v>
       </c>
       <c r="D6">
-        <v>0.9257199764251709</v>
+        <v>0.05304986983537674</v>
       </c>
       <c r="E6">
-        <v>0.0497446283698082</v>
+        <v>0.8259741067886353</v>
       </c>
       <c r="F6">
-        <v>0.02562783285975456</v>
+        <v>0.0399223156273365</v>
       </c>
       <c r="G6">
-        <v>-0.03195403888821602</v>
+        <v>0.08559106290340424</v>
       </c>
       <c r="H6">
-        <v>0.05574041604995728</v>
+        <v>0.04922407865524292</v>
       </c>
       <c r="I6">
-        <v>-0.06366327404975891</v>
+        <v>0.00104591716080904</v>
       </c>
       <c r="J6">
-        <v>0.1028168946504593</v>
+        <v>0.04458115249872208</v>
       </c>
       <c r="K6">
-        <v>0.06515956670045853</v>
+        <v>0.009669321589171886</v>
       </c>
     </row>
   </sheetData>
@@ -1516,34 +1516,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.06808830797672272</v>
+        <v>0.08576859533786774</v>
       </c>
       <c r="C2">
-        <v>0.2380993664264679</v>
+        <v>0.06790581345558167</v>
       </c>
       <c r="D2">
-        <v>0.1918933689594269</v>
+        <v>0.04691675677895546</v>
       </c>
       <c r="E2">
-        <v>0.7609809637069702</v>
+        <v>0.07884199172258377</v>
       </c>
       <c r="F2">
-        <v>0.2274351716041565</v>
+        <v>0.1033163666725159</v>
       </c>
       <c r="G2">
-        <v>0.2155661880970001</v>
+        <v>0.1152473539113998</v>
       </c>
       <c r="H2">
-        <v>0.2853512167930603</v>
+        <v>0.1199558526277542</v>
       </c>
       <c r="I2">
-        <v>0.09463918209075928</v>
+        <v>0.07786452770233154</v>
       </c>
       <c r="J2">
-        <v>0.8663222193717957</v>
+        <v>0.07503685355186462</v>
       </c>
       <c r="K2">
-        <v>0.8115872740745544</v>
+        <v>0.7675230503082275</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -1551,34 +1551,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.07628564536571503</v>
+        <v>0.1694299578666687</v>
       </c>
       <c r="C3">
-        <v>0.1051559671759605</v>
+        <v>0.1720074564218521</v>
       </c>
       <c r="D3">
-        <v>0.07217852771282196</v>
+        <v>0.1713768839836121</v>
       </c>
       <c r="E3">
-        <v>0.8422709703445435</v>
+        <v>0.191655233502388</v>
       </c>
       <c r="F3">
-        <v>0.2119067311286926</v>
+        <v>0.1714582741260529</v>
       </c>
       <c r="G3">
-        <v>0.2033283859491348</v>
+        <v>0.1822352856397629</v>
       </c>
       <c r="H3">
-        <v>0.1362476050853729</v>
+        <v>0.1748077571392059</v>
       </c>
       <c r="I3">
-        <v>0.08809754252433777</v>
+        <v>0.1446625292301178</v>
       </c>
       <c r="J3">
-        <v>0.8482258319854736</v>
+        <v>0.1089065745472908</v>
       </c>
       <c r="K3">
-        <v>0.8776277899742126</v>
+        <v>0.8896195888519287</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -1586,34 +1586,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.01628567464649677</v>
+        <v>0.09221738576889038</v>
       </c>
       <c r="C4">
-        <v>0.141773447394371</v>
+        <v>0.1684624254703522</v>
       </c>
       <c r="D4">
-        <v>0.1726630926132202</v>
+        <v>0.1675580143928528</v>
       </c>
       <c r="E4">
-        <v>0.8783265352249146</v>
+        <v>0.1160688996315002</v>
       </c>
       <c r="F4">
-        <v>0.0245650839060545</v>
+        <v>0.0550571084022522</v>
       </c>
       <c r="G4">
-        <v>0.1333708316087723</v>
+        <v>0.1424425840377808</v>
       </c>
       <c r="H4">
-        <v>0.1269215047359467</v>
+        <v>0.1025513410568237</v>
       </c>
       <c r="I4">
-        <v>0.02396918088197708</v>
+        <v>0.09762163460254669</v>
       </c>
       <c r="J4">
-        <v>0.8937671184539795</v>
+        <v>0.02581287920475006</v>
       </c>
       <c r="K4">
-        <v>0.8713778257369995</v>
+        <v>0.9352017641067505</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -1621,34 +1621,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.03025326132774353</v>
+        <v>0.006451699882745743</v>
       </c>
       <c r="C5">
-        <v>0.02544371597468853</v>
+        <v>0.1179337203502655</v>
       </c>
       <c r="D5">
-        <v>0.06731459498405457</v>
+        <v>0.07497031986713409</v>
       </c>
       <c r="E5">
-        <v>0.7843565940856934</v>
+        <v>0.04971807450056076</v>
       </c>
       <c r="F5">
-        <v>0.1160708516836166</v>
+        <v>-0.001867810497060418</v>
       </c>
       <c r="G5">
-        <v>0.1044439151883125</v>
+        <v>0.08632232993841171</v>
       </c>
       <c r="H5">
-        <v>0.0746140331029892</v>
+        <v>0.0002442551776766777</v>
       </c>
       <c r="I5">
-        <v>-0.002923788502812386</v>
+        <v>0.02780254743993282</v>
       </c>
       <c r="J5">
-        <v>0.8213790655136108</v>
+        <v>0.03149286657571793</v>
       </c>
       <c r="K5">
-        <v>0.8002783060073853</v>
+        <v>0.9086887240409851</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -1656,34 +1656,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>-0.07042235136032104</v>
+        <v>-0.01827842742204666</v>
       </c>
       <c r="C6">
-        <v>0.09759952127933502</v>
+        <v>0.08330686390399933</v>
       </c>
       <c r="D6">
-        <v>0.07166572660207748</v>
+        <v>0.07426131516695023</v>
       </c>
       <c r="E6">
-        <v>0.7188685536384583</v>
+        <v>0.02938926964998245</v>
       </c>
       <c r="F6">
-        <v>-0.03502493351697922</v>
+        <v>0.007371174171566963</v>
       </c>
       <c r="G6">
-        <v>0.07773242145776749</v>
+        <v>0.0840483158826828</v>
       </c>
       <c r="H6">
-        <v>0.0642220750451088</v>
+        <v>-0.02196955308318138</v>
       </c>
       <c r="I6">
-        <v>0.00694590900093317</v>
+        <v>-0.03274626284837723</v>
       </c>
       <c r="J6">
-        <v>0.7561708688735962</v>
+        <v>0.01480162888765335</v>
       </c>
       <c r="K6">
-        <v>0.7990379333496094</v>
+        <v>0.8891310691833496</v>
       </c>
     </row>
   </sheetData>
@@ -1736,34 +1736,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1210604608058929</v>
+        <v>0.09273337572813034</v>
       </c>
       <c r="C2">
-        <v>0.3885734379291534</v>
+        <v>0.168927401304245</v>
       </c>
       <c r="D2">
-        <v>0.1042700037360191</v>
+        <v>0.1471951603889465</v>
       </c>
       <c r="E2">
-        <v>0.1759639382362366</v>
+        <v>0.07349395751953125</v>
       </c>
       <c r="F2">
-        <v>0.1249632239341736</v>
+        <v>0.1098137944936752</v>
       </c>
       <c r="G2">
-        <v>0.7852685451507568</v>
+        <v>0.6934897899627686</v>
       </c>
       <c r="H2">
-        <v>0.3573179244995117</v>
+        <v>0.1083295419812202</v>
       </c>
       <c r="I2">
-        <v>0.1520669013261795</v>
+        <v>0.1355247050523758</v>
       </c>
       <c r="J2">
-        <v>0.1949425339698792</v>
+        <v>0.06954896450042725</v>
       </c>
       <c r="K2">
-        <v>0.1871171444654465</v>
+        <v>0.08379179239273071</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -1771,34 +1771,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.1814409792423248</v>
+        <v>0.1120239645242691</v>
       </c>
       <c r="C3">
-        <v>0.3968890011310577</v>
+        <v>0.2242365628480911</v>
       </c>
       <c r="D3">
-        <v>0.07400789856910706</v>
+        <v>0.2444372177124023</v>
       </c>
       <c r="E3">
-        <v>0.1878246515989304</v>
+        <v>0.1173198372125626</v>
       </c>
       <c r="F3">
-        <v>0.1585584878921509</v>
+        <v>0.08651190996170044</v>
       </c>
       <c r="G3">
-        <v>0.856844425201416</v>
+        <v>0.7997006773948669</v>
       </c>
       <c r="H3">
-        <v>0.3728311657905579</v>
+        <v>0.06864248216152191</v>
       </c>
       <c r="I3">
-        <v>0.1981867253780365</v>
+        <v>0.1768901497125626</v>
       </c>
       <c r="J3">
-        <v>0.1402392089366913</v>
+        <v>0.1196014881134033</v>
       </c>
       <c r="K3">
-        <v>0.1572894901037216</v>
+        <v>0.1975745856761932</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -1806,34 +1806,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.1685692965984344</v>
+        <v>0.06746987998485565</v>
       </c>
       <c r="C4">
-        <v>0.2889590263366699</v>
+        <v>0.2058823108673096</v>
       </c>
       <c r="D4">
-        <v>0.05878401547670364</v>
+        <v>0.1916531920433044</v>
       </c>
       <c r="E4">
-        <v>0.1121588349342346</v>
+        <v>0.144891694188118</v>
       </c>
       <c r="F4">
-        <v>0.0600307360291481</v>
+        <v>0.04502122476696968</v>
       </c>
       <c r="G4">
-        <v>0.9338127374649048</v>
+        <v>0.9218531847000122</v>
       </c>
       <c r="H4">
-        <v>0.2841058373451233</v>
+        <v>0.07395874708890915</v>
       </c>
       <c r="I4">
-        <v>0.1132488697767258</v>
+        <v>0.08701594918966293</v>
       </c>
       <c r="J4">
-        <v>0.1291677057743073</v>
+        <v>0.0752241238951683</v>
       </c>
       <c r="K4">
-        <v>0.1582580804824829</v>
+        <v>0.1502730250358582</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -1841,34 +1841,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.1032082438468933</v>
+        <v>0.02055245637893677</v>
       </c>
       <c r="C5">
-        <v>0.2840758562088013</v>
+        <v>0.2113263010978699</v>
       </c>
       <c r="D5">
-        <v>-0.0155258746817708</v>
+        <v>0.1484799385070801</v>
       </c>
       <c r="E5">
-        <v>0.1125127673149109</v>
+        <v>0.1504020392894745</v>
       </c>
       <c r="F5">
-        <v>0.04784636944532394</v>
+        <v>0.001307928701862693</v>
       </c>
       <c r="G5">
-        <v>0.8111724853515625</v>
+        <v>0.8405562043190002</v>
       </c>
       <c r="H5">
-        <v>0.2657768428325653</v>
+        <v>-0.009648988023400307</v>
       </c>
       <c r="I5">
-        <v>0.06104711815714836</v>
+        <v>0.02752164006233215</v>
       </c>
       <c r="J5">
-        <v>0.09796606749296188</v>
+        <v>0.06110193580389023</v>
       </c>
       <c r="K5">
-        <v>0.1289843916893005</v>
+        <v>0.09193460643291473</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -1876,34 +1876,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.07045863568782806</v>
+        <v>-0.08587012439966202</v>
       </c>
       <c r="C6">
-        <v>0.212534174323082</v>
+        <v>0.1634294390678406</v>
       </c>
       <c r="D6">
-        <v>-0.03666450828313828</v>
+        <v>0.1191992461681366</v>
       </c>
       <c r="E6">
-        <v>0.08785666525363922</v>
+        <v>0.05166193097829819</v>
       </c>
       <c r="F6">
-        <v>-0.01823090389370918</v>
+        <v>-0.04546719789505005</v>
       </c>
       <c r="G6">
-        <v>0.9049141407012939</v>
+        <v>0.8655518293380737</v>
       </c>
       <c r="H6">
-        <v>0.2171912044286728</v>
+        <v>-0.06453076750040054</v>
       </c>
       <c r="I6">
-        <v>0.04957393929362297</v>
+        <v>-0.04080549255013466</v>
       </c>
       <c r="J6">
-        <v>0.0759071409702301</v>
+        <v>0.03331253677606583</v>
       </c>
       <c r="K6">
-        <v>0.08663564920425415</v>
+        <v>0.06241967156529427</v>
       </c>
     </row>
   </sheetData>
@@ -1956,34 +1956,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.07954271882772446</v>
+        <v>0.2381878942251205</v>
       </c>
       <c r="C2">
-        <v>0.156079113483429</v>
+        <v>0.2560752034187317</v>
       </c>
       <c r="D2">
-        <v>0.1231333762407303</v>
+        <v>0.2848734259605408</v>
       </c>
       <c r="E2">
-        <v>0.1076884865760803</v>
+        <v>0.05916796997189522</v>
       </c>
       <c r="F2">
-        <v>0.0966041088104248</v>
+        <v>0.2129968106746674</v>
       </c>
       <c r="G2">
-        <v>0.1570418179035187</v>
+        <v>0.1367145627737045</v>
       </c>
       <c r="H2">
-        <v>0.1389812380075455</v>
+        <v>0.2637234330177307</v>
       </c>
       <c r="I2">
-        <v>0.7566089630126953</v>
+        <v>0.8954537510871887</v>
       </c>
       <c r="J2">
-        <v>0.09355966746807098</v>
+        <v>0.2720105350017548</v>
       </c>
       <c r="K2">
-        <v>0.08806832879781723</v>
+        <v>0.07766611129045486</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -1991,34 +1991,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.093767449259758</v>
+        <v>0.2159425616264343</v>
       </c>
       <c r="C3">
-        <v>0.1975647211074829</v>
+        <v>0.2030592262744904</v>
       </c>
       <c r="D3">
-        <v>0.0588831752538681</v>
+        <v>0.2106766104698181</v>
       </c>
       <c r="E3">
-        <v>0.1114565879106522</v>
+        <v>0.1965985596179962</v>
       </c>
       <c r="F3">
-        <v>0.173524022102356</v>
+        <v>0.2226279973983765</v>
       </c>
       <c r="G3">
-        <v>0.1969122290611267</v>
+        <v>0.1289569139480591</v>
       </c>
       <c r="H3">
-        <v>0.1789278090000153</v>
+        <v>0.1982837170362473</v>
       </c>
       <c r="I3">
-        <v>0.8333072662353516</v>
+        <v>0.9158803224563599</v>
       </c>
       <c r="J3">
-        <v>0.07525521516799927</v>
+        <v>0.4152420163154602</v>
       </c>
       <c r="K3">
-        <v>0.06782808899879456</v>
+        <v>0.1175133585929871</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -2026,34 +2026,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.08302786946296692</v>
+        <v>0.06639039516448975</v>
       </c>
       <c r="C4">
-        <v>0.1058915480971336</v>
+        <v>0.05025188624858856</v>
       </c>
       <c r="D4">
-        <v>0.004801093600690365</v>
+        <v>0.04147422313690186</v>
       </c>
       <c r="E4">
-        <v>0.04100415110588074</v>
+        <v>0.04087574034929276</v>
       </c>
       <c r="F4">
-        <v>0.04182121530175209</v>
+        <v>0.03734467178583145</v>
       </c>
       <c r="G4">
-        <v>0.1002079322934151</v>
+        <v>0.06737910211086273</v>
       </c>
       <c r="H4">
-        <v>0.09060503542423248</v>
+        <v>0.07819062471389771</v>
       </c>
       <c r="I4">
-        <v>0.8133823871612549</v>
+        <v>0.9335618019104004</v>
       </c>
       <c r="J4">
-        <v>0.04132827371358871</v>
+        <v>0.3615856766700745</v>
       </c>
       <c r="K4">
-        <v>0.06009350717067719</v>
+        <v>0.07870419323444366</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -2061,34 +2061,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.05239435657858849</v>
+        <v>-0.04319175705313683</v>
       </c>
       <c r="C5">
-        <v>0.05972015857696533</v>
+        <v>0.08232094347476959</v>
       </c>
       <c r="D5">
-        <v>-0.003300429321825504</v>
+        <v>0.05561581999063492</v>
       </c>
       <c r="E5">
-        <v>-0.01575747691094875</v>
+        <v>0.0340416356921196</v>
       </c>
       <c r="F5">
-        <v>0.04926395788788795</v>
+        <v>-0.1172648072242737</v>
       </c>
       <c r="G5">
-        <v>0.08550297468900681</v>
+        <v>0.01020406745374203</v>
       </c>
       <c r="H5">
-        <v>0.02159230597317219</v>
+        <v>-0.03758813440799713</v>
       </c>
       <c r="I5">
-        <v>0.9011832475662231</v>
+        <v>0.8964197635650635</v>
       </c>
       <c r="J5">
-        <v>-0.002224397845566273</v>
+        <v>0.3386965990066528</v>
       </c>
       <c r="K5">
-        <v>-0.0290926955640316</v>
+        <v>0.03406244516372681</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -2096,34 +2096,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.05104295909404755</v>
+        <v>-0.004104129038751125</v>
       </c>
       <c r="C6">
-        <v>0.06829555332660675</v>
+        <v>-0.08156368136405945</v>
       </c>
       <c r="D6">
-        <v>-0.07752548158168793</v>
+        <v>-0.07115095853805542</v>
       </c>
       <c r="E6">
-        <v>-0.04189299046993256</v>
+        <v>-0.007040303200483322</v>
       </c>
       <c r="F6">
-        <v>-0.01863239891827106</v>
+        <v>0.007327820640057325</v>
       </c>
       <c r="G6">
-        <v>0.06862889230251312</v>
+        <v>-0.05764453113079071</v>
       </c>
       <c r="H6">
-        <v>-0.01070897839963436</v>
+        <v>-0.01796770095825195</v>
       </c>
       <c r="I6">
-        <v>0.9454997777938843</v>
+        <v>0.8657474517822266</v>
       </c>
       <c r="J6">
-        <v>-0.01580751873552799</v>
+        <v>0.304568350315094</v>
       </c>
       <c r="K6">
-        <v>-0.01524477452039719</v>
+        <v>-0.04943752661347389</v>
       </c>
     </row>
   </sheetData>
